--- a/docs/ST1/ST1_24.07.24_output.xlsx
+++ b/docs/ST1/ST1_24.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,11 @@
           <t>quity</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -528,6 +533,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -540,22 +546,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1730735399.6640139</t>
+          <t>1731623040.453163</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1730735402.3195562</t>
+          <t>1731623042.9509673</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730735399.6640139.png</t>
+          <t>./test_images/SBER1731623040.453163.png</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730735402.3195562.png</t>
+          <t>./test_images/SBER1731623042.9509673.png</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -576,6 +582,9 @@
       </c>
       <c r="K3" t="n">
         <v>-0.01999999999998181</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="4">
@@ -589,22 +598,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1730735402.3354852</t>
+          <t>1731623042.9669397</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1730735404.5173771</t>
+          <t>1731623045.1325452</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730735402.3354852.png</t>
+          <t>./test_images/SBER1731623042.9669397.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730735404.5173771.png</t>
+          <t>./test_images/SBER1731623045.1325452.png</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -625,6 +634,9 @@
       </c>
       <c r="K4" t="n">
         <v>0.009999999999990905</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +650,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1730735404.5323372</t>
+          <t>1731623045.1485028</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1730735406.5505006</t>
+          <t>1731623047.1703804</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730735404.5323372.png</t>
+          <t>./test_images/SBER1731623045.1485028.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730735406.5505006.png</t>
+          <t>./test_images/SBER1731623047.1703804.png</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -674,6 +686,9 @@
       </c>
       <c r="K5" t="n">
         <v>0.589999999999975</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
@@ -687,22 +702,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1730735409.843566</t>
+          <t>1731623050.3518243</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1730735414.2571354</t>
+          <t>1731623054.511482</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730735409.843566.png</t>
+          <t>./test_images/GAZP1731623050.3518243.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730735414.2571354.png</t>
+          <t>./test_images/GAZP1731623054.511482.png</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -723,6 +738,9 @@
       </c>
       <c r="K6" t="n">
         <v>0.4799999999999898</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="7">
@@ -736,22 +754,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1730735418.879908</t>
+          <t>1731623058.9378834</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1730735421.08352</t>
+          <t>1731623061.1325924</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730735418.879908.png</t>
+          <t>./test_images/LKOH1731623058.9378834.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730735421.08352.png</t>
+          <t>./test_images/LKOH1731623061.1325924.png</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -771,6 +789,9 @@
         <v>6971</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -785,22 +806,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1730735421.0994775</t>
+          <t>1731623061.1485476</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1730735425.457483</t>
+          <t>1731623065.3089528</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730735421.0994775.png</t>
+          <t>./test_images/LKOH1731623061.1485476.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730735425.457483.png</t>
+          <t>./test_images/LKOH1731623065.3089528.png</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -821,6 +842,9 @@
       </c>
       <c r="K8" t="n">
         <v>-3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="9">
@@ -834,22 +858,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1730735425.473412</t>
+          <t>1731623065.3249102</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1730735427.9269705</t>
+          <t>1731623067.6597657</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730735425.473412.png</t>
+          <t>./test_images/LKOH1731623065.3249102.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730735427.9269705.png</t>
+          <t>./test_images/LKOH1731623067.6597657.png</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -870,6 +894,9 @@
       </c>
       <c r="K9" t="n">
         <v>18.5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="10">
@@ -883,22 +910,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1730735429.02351</t>
+          <t>1731623068.7154799</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1730735429.8330464</t>
+          <t>1731623069.4978313</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730735429.02351.png</t>
+          <t>./test_images/LKOH1731623068.7154799.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730735429.8330464.png</t>
+          <t>./test_images/LKOH1731623069.4978313.png</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -919,6 +946,9 @@
       </c>
       <c r="K10" t="n">
         <v>-8</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="11">
@@ -932,13 +962,13 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1730735429.8494267</t>
+          <t>1731623069.512793</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730735429.8494267.png</t>
+          <t>./test_images/LKOH1731623069.512793.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -955,8 +985,15 @@
       <c r="I11" t="n">
         <v>6966.5</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>6966.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -969,13 +1006,13 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1730735437.3161952</t>
+          <t>1731623076.580625</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730735437.3161952.png</t>
+          <t>./test_images/ROSN1731623076.580625.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -992,8 +1029,15 @@
       <c r="I12" t="n">
         <v>536.3</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>536.3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1006,13 +1050,13 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1730735444.5744476</t>
+          <t>1731623083.6105444</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730735444.5744476.png</t>
+          <t>./test_images/NVTK1731623083.6105444.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1029,8 +1073,15 @@
       <c r="I13" t="n">
         <v>1094.8</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1094.8</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1043,22 +1094,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1730735457.6187038</t>
+          <t>1731623096.562942</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1730735459.8272128</t>
+          <t>1731623098.6518347</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730735457.6187038.png</t>
+          <t>./test_images/GMKN1731623096.562942.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730735459.8272128.png</t>
+          <t>./test_images/GMKN1731623098.6518347.png</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1079,6 +1130,9 @@
       </c>
       <c r="K14" t="n">
         <v>1.360000000000014</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.05</v>
       </c>
     </row>
     <row r="15">
@@ -1092,22 +1146,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1730735467.1445272</t>
+          <t>1731623105.8246775</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1730735476.0743563</t>
+          <t>1731623114.9290109</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730735467.1445272.png</t>
+          <t>./test_images/NLMK1731623105.8246775.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730735476.0743563.png</t>
+          <t>./test_images/NLMK1731623114.9290109.png</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1128,6 +1182,9 @@
       </c>
       <c r="K15" t="n">
         <v>-3.47999999999999</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-2.07</v>
       </c>
     </row>
     <row r="16">
@@ -1141,22 +1198,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1730735477.7117038</t>
+          <t>1731623116.599038</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1730735487.1913044</t>
+          <t>1731623125.6628528</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730735477.7117038.png</t>
+          <t>./test_images/MAGN1731623116.599038.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730735487.1913044.png</t>
+          <t>./test_images/MAGN1731623125.6628528.png</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1177,6 +1234,9 @@
       </c>
       <c r="K16" t="n">
         <v>-0.1199999999999974</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="17">
@@ -1190,22 +1250,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1730735489.8869386</t>
+          <t>1731623128.3686635</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1730735498.880835</t>
+          <t>1731623137.6793902</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730735489.8869386.png</t>
+          <t>./test_images/CHMF1731623128.3686635.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730735498.880835.png</t>
+          <t>./test_images/CHMF1731623137.6793902.png</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1226,6 +1286,9 @@
       </c>
       <c r="K17" t="n">
         <v>-2.400000000000091</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="18">
@@ -1239,22 +1302,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1730735503.440361</t>
+          <t>1731623142.4965594</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1730735506.7027848</t>
+          <t>1731623145.9188437</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730735503.440361.png</t>
+          <t>./test_images/ALRS1731623142.4965594.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730735506.7027848.png</t>
+          <t>./test_images/ALRS1731623145.9188437.png</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1275,6 +1338,9 @@
       </c>
       <c r="K18" t="n">
         <v>0.4500000000000028</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.7100000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -1288,13 +1354,13 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1730735509.0115004</t>
+          <t>1731623148.419088</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730735509.0115004.png</t>
+          <t>./test_images/ALRS1731623148.419088.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1311,8 +1377,15 @@
       <c r="I19" t="n">
         <v>64.23</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>64.23</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1325,22 +1398,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1730735510.863411</t>
+          <t>1731623150.360531</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1730735515.5442755</t>
+          <t>1731623154.7570574</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730735510.863411.png</t>
+          <t>./test_images/SELG1731623150.360531.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730735515.5442755.png</t>
+          <t>./test_images/SELG1731623154.7570574.png</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1361,6 +1434,9 @@
       </c>
       <c r="K20" t="n">
         <v>0.25</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="21">
@@ -1374,13 +1450,13 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1730735518.9877813</t>
+          <t>1731623158.096047</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730735518.9877813.png</t>
+          <t>./test_images/SELG1731623158.096047.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1397,8 +1473,15 @@
       <c r="I21" t="n">
         <v>59.09</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>59.09</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1411,13 +1494,13 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1730735527.8221834</t>
+          <t>1731623166.584239</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730735527.8221834.png</t>
+          <t>./test_images/SOFL1731623166.584239.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1434,8 +1517,15 @@
       <c r="I22" t="n">
         <v>145.84</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>145.84</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1448,22 +1538,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1730735534.4445238</t>
+          <t>1731623172.9631085</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1730735540.8253694</t>
+          <t>1731623179.508606</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>./test_images/ABIO1730735534.4445238.png</t>
+          <t>./test_images/ABIO1731623172.9631085.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>./test_images/ABIO1730735540.8253694.png</t>
+          <t>./test_images/ABIO1731623179.508606.png</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1484,6 +1574,9 @@
       </c>
       <c r="K23" t="n">
         <v>-0.8200000000000074</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-0.91</v>
       </c>
     </row>
     <row r="24">
@@ -1497,13 +1590,13 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1730735540.841327</t>
+          <t>1731623179.5245636</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>./test_images/ABIO1730735540.841327.png</t>
+          <t>./test_images/ABIO1731623179.5245636.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1520,8 +1613,15 @@
       <c r="I24" t="n">
         <v>89.38</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>89.38</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1534,22 +1634,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1730735545.8995166</t>
+          <t>1731623184.9778414</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1730735548.6980102</t>
+          <t>1731623187.9799023</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>./test_images/BSPB1730735545.8995166.png</t>
+          <t>./test_images/BSPB1731623184.9778414.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>./test_images/BSPB1730735548.6980102.png</t>
+          <t>./test_images/BSPB1731623187.9799023.png</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1570,6 +1670,9 @@
       </c>
       <c r="K25" t="n">
         <v>-0.06999999999999318</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="26">
@@ -1583,22 +1686,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1730735548.7149644</t>
+          <t>1731623187.9958441</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1730735553.892833</t>
+          <t>1731623193.3843918</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>./test_images/BSPB1730735548.7149644.png</t>
+          <t>./test_images/BSPB1731623187.9958441.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>./test_images/BSPB1730735553.892833.png</t>
+          <t>./test_images/BSPB1731623193.3843918.png</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1619,6 +1722,9 @@
       </c>
       <c r="K26" t="n">
         <v>8.629999999999995</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.38</v>
       </c>
     </row>
     <row r="27">
@@ -1632,13 +1738,13 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1730735554.4633553</t>
+          <t>1731623193.9737344</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>./test_images/BSPB1730735554.4633553.png</t>
+          <t>./test_images/BSPB1731623193.9737344.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1655,8 +1761,15 @@
       <c r="I27" t="n">
         <v>371.52</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>371.52</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1669,22 +1782,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1730735555.4333916</t>
+          <t>1731623195.1176882</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1730735562.764912</t>
+          <t>1731623202.936689</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730735555.4333916.png</t>
+          <t>./test_images/FEES1731623195.1176882.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730735562.764912.png</t>
+          <t>./test_images/FEES1731623202.936689.png</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1705,6 +1818,9 @@
       </c>
       <c r="K28" t="n">
         <v>-0.001200000000000007</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-1.21</v>
       </c>
     </row>
     <row r="29">
@@ -1718,22 +1834,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1730735566.8036394</t>
+          <t>1731623206.8962183</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1730735569.7505777</t>
+          <t>1731623210.0171173</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730735566.8036394.png</t>
+          <t>./test_images/MXI1731623206.8962183.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730735569.7505777.png</t>
+          <t>./test_images/MXI1731623210.0171173.png</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1754,6 +1870,9 @@
       </c>
       <c r="K29" t="n">
         <v>-1.599999999999909</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="30">
@@ -1767,22 +1886,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1730735569.7705245</t>
+          <t>1731623210.0330791</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1730735576.9985356</t>
+          <t>1731623217.8272743</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730735569.7705245.png</t>
+          <t>./test_images/MXI1731623210.0330791.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730735576.9985356.png</t>
+          <t>./test_images/MXI1731623217.8272743.png</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1803,6 +1922,9 @@
       </c>
       <c r="K30" t="n">
         <v>10</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="31">
@@ -1816,13 +1938,13 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1730735577.7063458</t>
+          <t>1731623218.5852082</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730735577.7063458.png</t>
+          <t>./test_images/MXI1731623218.5852082.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -1839,8 +1961,15 @@
       <c r="I31" t="n">
         <v>3133</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>3133</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1853,22 +1982,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1730735578.2883525</t>
+          <t>1731623219.205414</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1730735583.0497959</t>
+          <t>1731623224.2112985</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730735578.2883525.png</t>
+          <t>./test_images/RUAL1731623219.205414.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730735583.0497959.png</t>
+          <t>./test_images/RUAL1731623224.2112985.png</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1889,6 +2018,9 @@
       </c>
       <c r="K32" t="n">
         <v>0.2700000000000031</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="33">
@@ -1902,13 +2034,13 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1730735588.5695586</t>
+          <t>1731623229.630006</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730735588.5695586.png</t>
+          <t>./test_images/RUAL1731623229.630006.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -1925,8 +2057,163 @@
       <c r="I33" t="n">
         <v>38.03</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>38.03</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1731623231.5138998</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1731623233.9059339</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731623231.5138998.png</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731623233.9059339.png</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>662.7</v>
+      </c>
+      <c r="J34" t="n">
+        <v>663.1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.3999999999999773</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1731623233.9228828</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1731623238.0138688</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731623233.9228828.png</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731623238.0138688.png</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>663.1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>665.6</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1731623239.997816</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731623239.997816.png</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>664.5</v>
+      </c>
+      <c r="J36" t="n">
+        <v>664.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1939,7 +2226,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1963,6 +2250,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1974,98 +2276,170 @@
         <v>7.5</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5799999999999841</v>
+        <v>8.400000000000091</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
+      <c r="D3" t="n">
+        <v>2.80000000000003</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>BSPB</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.400000000000091</v>
+        <v>8.560000000000002</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.853333333333334</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>BSPB</t>
+          <t>TATN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.560000000000002</v>
+        <v>2.100000000000023</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7000000000000076</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4500000000000028</v>
+        <v>0.5799999999999841</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.193333333333328</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.25</v>
+        <v>0.4500000000000028</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2250000000000014</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7100000000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>RUAL</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2700000000000031</v>
+        <v>0.25</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>RUAL</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.47999999999999</v>
+        <v>0.2700000000000031</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1350000000000016</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="10">
@@ -2078,7 +2452,16 @@
         <v>-0.8200000000000074</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.4100000000000037</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.91</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.46</v>
       </c>
     </row>
     <row r="11">
@@ -2093,83 +2476,146 @@
       <c r="C11" t="n">
         <v>1</v>
       </c>
+      <c r="D11" t="n">
+        <v>-0.1199999999999974</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.22</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.360000000000014</v>
+        <v>-3.47999999999999</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
+      <c r="D12" t="n">
+        <v>-3.47999999999999</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-2.07</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-2.07</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4799999999999898</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>FEES</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.001200000000000007</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.400000000000091</v>
+        <v>1.360000000000014</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
+      <c r="D15" t="n">
+        <v>1.360000000000014</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.4799999999999898</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.4799999999999898</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>FEES</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-0.001200000000000007</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.001200000000000007</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-1.21</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-1.21</v>
       </c>
     </row>
     <row r="18">
@@ -2182,21 +2628,57 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-2.400000000000091</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-2.400000000000091</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/ST1/ST1_24.07.24_output.xlsx
+++ b/docs/ST1/ST1_24.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731623040.453163</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731623042.9509673</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731623040.453163.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731623042.9509673.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>295.83</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>295.81</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.01999999999998181</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731623042.9669397</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731623045.1325452</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731623042.9669397.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731623045.1325452.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>295.81</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>295.8</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.009999999999990905</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731623045.1485028</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731623047.1703804</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731623045.1485028.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731623047.1703804.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>295.8</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>296.39</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.589999999999975</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731623050.3518243</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731623054.511482</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731623050.3518243.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731623054.511482.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>136.12</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>136.6</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.4799999999999898</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731623058.9378834</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731623061.1325924</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731623058.9378834.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731623061.1325924.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>6971</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>6971</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731623061.1485476</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731623065.3089528</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731623061.1485476.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731623065.3089528.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>6971</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>6968</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-3</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731623065.3249102</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731623067.6597657</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731623065.3249102.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731623067.6597657.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6968</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6949.5</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>18.5</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731623068.7154799</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731623069.4978313</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731623068.7154799.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731623069.4978313.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6958.5</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>6966.5</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-8</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -955,183 +1019,207 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731623069.512793</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731623069.512793.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731623069.512793.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6966.5</v>
       </c>
-      <c r="J11" t="n">
-        <v>6966.5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>6972</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731623076.580625</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731623076.580625.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731623076.580625.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>536.3</v>
       </c>
-      <c r="J12" t="n">
-        <v>536.3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>537</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.7000000000000455</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731623083.6105444</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731623083.6105444.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731623083.6105444.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>1094.8</v>
       </c>
-      <c r="J13" t="n">
-        <v>1094.8</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1084.6</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-10.20000000000005</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.9299999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731623096.562942</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731623098.6518347</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731623096.562942.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731623098.6518347.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>129.32</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>130.68</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>1.360000000000014</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>1.05</v>
       </c>
     </row>
@@ -1139,51 +1227,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731623105.8246775</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731623114.9290109</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731623105.8246775.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731623114.9290109.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>168.28</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>171.76</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-3.47999999999999</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-2.07</v>
       </c>
     </row>
@@ -1191,51 +1285,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731623116.599038</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731623125.6628528</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731623116.599038.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731623125.6628528.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>53.485</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>53.605</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.1199999999999974</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -1243,51 +1343,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731623128.3686635</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731623137.6793902</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731623128.3686635.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731623137.6793902.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>1465</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>1467.4</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-2.400000000000091</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -1295,51 +1401,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731623142.4965594</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731623145.9188437</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731623142.4965594.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731623145.9188437.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>63.78</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>64.23</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.4500000000000028</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.7100000000000001</v>
       </c>
     </row>
@@ -1347,95 +1459,107 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731623148.419088</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731623148.419088.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731623148.419088.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>64.23</v>
       </c>
-      <c r="J19" t="n">
-        <v>64.23</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>63.95</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.2800000000000011</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.44</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731623150.360531</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731623154.7570574</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/SELG1731623150.360531.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/SELG1731623154.7570574.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>59.46</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>59.21</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.25</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -1443,139 +1567,157 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731623158.096047</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731623158.096047.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731623158.096047.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>59.09</v>
       </c>
-      <c r="J21" t="n">
-        <v>59.09</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>59.21</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.1199999999999974</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731623166.584239</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731623166.584239.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731623166.584239.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>145.84</v>
       </c>
-      <c r="J22" t="n">
-        <v>145.84</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>146.1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-0.2599999999999909</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731623172.9631085</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731623179.508606</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731623172.9631085.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731623179.508606.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>90.2</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>89.38</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.8200000000000074</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.91</v>
       </c>
     </row>
@@ -1583,95 +1725,107 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731623179.5245636</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/ABIO1731623179.5245636.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>./test_images/ABIO1731623179.5245636.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>89.38</v>
       </c>
-      <c r="J24" t="n">
-        <v>89.38</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>89.09999999999999</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.2800000000000011</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731623184.9778414</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731623187.9799023</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731623184.9778414.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731623187.9799023.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>362.33</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>362.4</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.06999999999999318</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -1679,51 +1833,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731623187.9958441</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731623193.3843918</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731623187.9958441.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731623193.3843918.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>362.4</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>371.03</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>8.629999999999995</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>2.38</v>
       </c>
     </row>
@@ -1731,95 +1891,107 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731623193.9737344</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731623193.9737344.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731623193.9737344.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>371.52</v>
       </c>
-      <c r="J27" t="n">
-        <v>371.52</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.24</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-1.279999999999973</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731623195.1176882</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731623202.936689</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/FEES1731623195.1176882.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/FEES1731623202.936689.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>0.09908</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>0.10028</v>
       </c>
-      <c r="K28" t="n">
-        <v>-0.001200000000000007</v>
-      </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
+        <v>-0.001199999999999993</v>
+      </c>
+      <c r="N28" t="n">
         <v>-1.21</v>
       </c>
     </row>
@@ -1827,51 +1999,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731623206.8962183</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731623210.0171173</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MXI1731623206.8962183.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MXI1731623210.0171173.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>3115.65</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>3117.25</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-1.599999999999909</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -1879,51 +2057,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731623210.0330791</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731623217.8272743</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MXI1731623210.0330791.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MXI1731623217.8272743.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>3117.25</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>3127.25</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>10</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -1931,95 +2115,107 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731623218.5852082</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731623218.5852082.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731623218.5852082.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>3133</v>
       </c>
-      <c r="J31" t="n">
-        <v>3133</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>3132.95</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.0500000000001819</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731623219.205414</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731623224.2112985</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731623219.205414.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731623224.2112985.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>38.38</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>38.11</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.2700000000000031</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.7000000000000001</v>
       </c>
     </row>
@@ -2027,95 +2223,107 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731623229.630006</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731623229.630006.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731623229.630006.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>38.03</v>
       </c>
-      <c r="J33" t="n">
-        <v>38.03</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>37.995</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.03500000000000369</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731623231.5138998</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731623233.9059339</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/TATN1731623231.5138998.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/TATN1731623233.9059339.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>662.7</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>663.1</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.3999999999999773</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -2123,51 +2331,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731623233.9228828</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731623238.0138688</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/TATN1731623233.9228828.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/TATN1731623238.0138688.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>663.1</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>665.6</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>2.5</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -2175,44 +2389,50 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731623239.997816</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731623239.997816.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731623239.997816.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>664.5</v>
       </c>
-      <c r="J36" t="n">
-        <v>664.5</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>665.2</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7000000000000455</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
@@ -2273,19 +2493,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="E2" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -2295,13 +2515,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.400000000000091</v>
+        <v>8.349999999999909</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>2.80000000000003</v>
+        <v>2.783333333333303</v>
       </c>
       <c r="E3" t="n">
         <v>0.27</v>
@@ -2317,19 +2537,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.560000000000002</v>
+        <v>7.28000000000003</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>2.853333333333334</v>
+        <v>2.426666666666677</v>
       </c>
       <c r="E4" t="n">
-        <v>2.36</v>
+        <v>2.02</v>
       </c>
       <c r="F4" t="n">
-        <v>0.79</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="5">
@@ -2339,19 +2559,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.100000000000023</v>
+        <v>2.800000000000068</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7000000000000076</v>
+        <v>0.9333333333333561</v>
       </c>
       <c r="E5" t="n">
-        <v>0.32</v>
+        <v>0.43</v>
       </c>
       <c r="F5" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="6">
@@ -2383,19 +2603,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4500000000000028</v>
+        <v>0.1700000000000017</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2250000000000014</v>
+        <v>0.08500000000000085</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7100000000000001</v>
+        <v>0.2700000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.36</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="8">
@@ -2405,19 +2625,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.25</v>
+        <v>0.1300000000000026</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.125</v>
+        <v>0.06500000000000128</v>
       </c>
       <c r="E8" t="n">
-        <v>0.42</v>
+        <v>0.22</v>
       </c>
       <c r="F8" t="n">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="9">
@@ -2427,19 +2647,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2700000000000031</v>
+        <v>0.3050000000000068</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1350000000000016</v>
+        <v>0.1525000000000034</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="F9" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10">
@@ -2449,19 +2669,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.8200000000000074</v>
+        <v>-0.5400000000000063</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.4100000000000037</v>
+        <v>-0.2700000000000031</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.91</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.46</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="11">
@@ -2515,19 +2735,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-10.20000000000005</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-10.20000000000005</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-0.9299999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="14">
@@ -2537,19 +2757,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.7000000000000455</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.7000000000000455</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="15">
@@ -2603,13 +2823,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.001200000000000007</v>
+        <v>-0.001199999999999993</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.001200000000000007</v>
+        <v>-0.001199999999999993</v>
       </c>
       <c r="E17" t="n">
         <v>-1.21</v>
@@ -2625,19 +2845,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>-0.2599999999999909</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>-0.2599999999999909</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>-0.18</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="19">
